--- a/Thư mục ảnh đi kèm/Book1.xlsx
+++ b/Thư mục ảnh đi kèm/Book1.xlsx
@@ -455,310 +455,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1">
         <v>64</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1">
         <v>64</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1">
         <v>64</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1">
         <v>64</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
+      <c r="B10" s="1">
         <v>128</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B11" s="1">
         <v>128</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Thư mục ảnh đi kèm/Book1.xlsx
+++ b/Thư mục ảnh đi kèm/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Lớp</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Pooling 2</t>
   </si>
   <si>
-    <t>Fully connected 1</t>
-  </si>
-  <si>
-    <t>Fully connected 2</t>
-  </si>
-  <si>
     <t>Convolutional-0</t>
   </si>
   <si>
@@ -108,6 +102,33 @@
   </si>
   <si>
     <t>1 x 1 x 7</t>
+  </si>
+  <si>
+    <t>Dropout 1</t>
+  </si>
+  <si>
+    <t>Dropout=0.5</t>
+  </si>
+  <si>
+    <t>Dropout 2</t>
+  </si>
+  <si>
+    <t>Flatten</t>
+  </si>
+  <si>
+    <t>1 x 1 x 4608</t>
+  </si>
+  <si>
+    <t>Dense</t>
+  </si>
+  <si>
+    <t>Dropout 3</t>
+  </si>
+  <si>
+    <t>activation='relu'</t>
+  </si>
+  <si>
+    <t>activation='softmax'</t>
   </si>
 </sst>
 </file>
@@ -455,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,44 +519,44 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,158 +567,240 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>64</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>128</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>128</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
